--- a/customers.xlsx
+++ b/customers.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pending customers" r:id="rId3" sheetId="1"/>
+    <sheet name="Customers" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>Full name</t>
   </si>
@@ -23,28 +23,238 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Started date</t>
-  </si>
-  <si>
-    <t>Expired Date</t>
-  </si>
-  <si>
-    <t>Amount paid</t>
-  </si>
-  <si>
-    <t>Paid by</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Poxing</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Pending</t>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Who registered</t>
+  </si>
+  <si>
+    <t>Fore arm</t>
+  </si>
+  <si>
+    <t>Hips</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>Ilhaan Berty Vitoria</t>
+  </si>
+  <si>
+    <t>8435290</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>No address</t>
+  </si>
+  <si>
+    <t>50.0 kg</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>94.64 cm</t>
+  </si>
+  <si>
+    <t>87.76 cm</t>
+  </si>
+  <si>
+    <t>87.49 cm</t>
+  </si>
+  <si>
+    <t>66.5 cm</t>
+  </si>
+  <si>
+    <t>Khadra Nuur Larisa</t>
+  </si>
+  <si>
+    <t>8919450</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>87.0 kg</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>47.08 cm</t>
+  </si>
+  <si>
+    <t>67.66 cm</t>
+  </si>
+  <si>
+    <t>76.3 cm</t>
+  </si>
+  <si>
+    <t>96.12 cm</t>
+  </si>
+  <si>
+    <t>Faith Lek Shell</t>
+  </si>
+  <si>
+    <t>5594003</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>48.0 kg</t>
+  </si>
+  <si>
+    <t>Aldwin</t>
+  </si>
+  <si>
+    <t>45.53 cm</t>
+  </si>
+  <si>
+    <t>83.64 cm</t>
+  </si>
+  <si>
+    <t>46.97 cm</t>
+  </si>
+  <si>
+    <t>90.41 cm</t>
+  </si>
+  <si>
+    <t>Solomon Evin Priscilla</t>
+  </si>
+  <si>
+    <t>7916173</t>
+  </si>
+  <si>
+    <t>73.0 kg</t>
+  </si>
+  <si>
+    <t>Rabi</t>
+  </si>
+  <si>
+    <t>87.62 cm</t>
+  </si>
+  <si>
+    <t>49.88 cm</t>
+  </si>
+  <si>
+    <t>60.79 cm</t>
+  </si>
+  <si>
+    <t>50.7 cm</t>
+  </si>
+  <si>
+    <t>Antin Findley Daffi</t>
+  </si>
+  <si>
+    <t>4416377</t>
+  </si>
+  <si>
+    <t>98.0 kg</t>
+  </si>
+  <si>
+    <t>Leighton</t>
+  </si>
+  <si>
+    <t>69.07 cm</t>
+  </si>
+  <si>
+    <t>74.42 cm</t>
+  </si>
+  <si>
+    <t>39.46 cm</t>
+  </si>
+  <si>
+    <t>67.59 cm</t>
+  </si>
+  <si>
+    <t>Krissie Horacio Marleen</t>
+  </si>
+  <si>
+    <t>2575271</t>
+  </si>
+  <si>
+    <t>46.0 kg</t>
+  </si>
+  <si>
+    <t>Enoch</t>
+  </si>
+  <si>
+    <t>81.02 cm</t>
+  </si>
+  <si>
+    <t>79.59 cm</t>
+  </si>
+  <si>
+    <t>7.11 cm</t>
+  </si>
+  <si>
+    <t>61.71 cm</t>
+  </si>
+  <si>
+    <t>Edouard Guthry Zorah</t>
+  </si>
+  <si>
+    <t>3791385</t>
+  </si>
+  <si>
+    <t>83.0 kg</t>
+  </si>
+  <si>
+    <t>Sigismondo</t>
+  </si>
+  <si>
+    <t>88.41 cm</t>
+  </si>
+  <si>
+    <t>86.2 cm</t>
+  </si>
+  <si>
+    <t>16.44 cm</t>
+  </si>
+  <si>
+    <t>5.39 cm</t>
+  </si>
+  <si>
+    <t>Bibbye Ring Beilul</t>
+  </si>
+  <si>
+    <t>5617450</t>
+  </si>
+  <si>
+    <t>78.0 kg</t>
+  </si>
+  <si>
+    <t>Jarrid</t>
+  </si>
+  <si>
+    <t>71.2 cm</t>
+  </si>
+  <si>
+    <t>77.84 cm</t>
+  </si>
+  <si>
+    <t>13.19 cm</t>
+  </si>
+  <si>
+    <t>76.21 cm</t>
   </si>
   <si>
     <t>Wally Orville Cilka</t>
@@ -53,28 +263,67 @@
     <t>6089905</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2022-12-10</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $17.58</t>
-  </si>
-  <si>
-    <t>2XL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $1.77</t>
-  </si>
-  <si>
-    <t>Yes(√)</t>
-  </si>
-  <si>
-    <t>No(X)</t>
+    <t>76.0 kg</t>
+  </si>
+  <si>
+    <t>Michail</t>
+  </si>
+  <si>
+    <t>61.47 cm</t>
+  </si>
+  <si>
+    <t>32.1 cm</t>
+  </si>
+  <si>
+    <t>61.11 cm</t>
+  </si>
+  <si>
+    <t>23.49 cm</t>
+  </si>
+  <si>
+    <t>Bernardine Harman Patricia</t>
+  </si>
+  <si>
+    <t>4222639</t>
+  </si>
+  <si>
+    <t>67.0 kg</t>
+  </si>
+  <si>
+    <t>Quincey</t>
+  </si>
+  <si>
+    <t>74.96 cm</t>
+  </si>
+  <si>
+    <t>88.63 cm</t>
+  </si>
+  <si>
+    <t>63.27 cm</t>
+  </si>
+  <si>
+    <t>19.22 cm</t>
+  </si>
+  <si>
+    <t>Muure Ahmed Libaax</t>
+  </si>
+  <si>
+    <t>2343444</t>
+  </si>
+  <si>
+    <t>Burco</t>
+  </si>
+  <si>
+    <t>444.0 kg</t>
+  </si>
+  <si>
+    <t>jamko</t>
+  </si>
+  <si>
+    <t>44.0 cm</t>
+  </si>
+  <si>
+    <t>33.0 cm</t>
   </si>
 </sst>
 </file>
@@ -119,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
@@ -197,7 +446,341 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
